--- a/Modèle-audit-SEO (1).xlsx
+++ b/Modèle-audit-SEO (1).xlsx
@@ -20,22 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
-  <si>
-    <t xml:space="preserve">Catégorie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Problème identifié</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explication du problème</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonne pratique à adopter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action recommandée</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t xml:space="preserve">Référence</t>
   </si>
@@ -82,6 +67,9 @@
     <t xml:space="preserve">Ajouter une description du site dans la balise</t>
   </si>
   <si>
+    <t xml:space="preserve">Lighouse</t>
+  </si>
+  <si>
     <t xml:space="preserve">Balise meta keywords</t>
   </si>
   <si>
@@ -91,6 +79,9 @@
     <t xml:space="preserve">Enlever cette balise </t>
   </si>
   <si>
+    <t xml:space="preserve">COUR Augmentez votre trafic grâce au référencement naturel (SEO)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Performance</t>
   </si>
   <si>
@@ -109,9 +100,6 @@
     <t xml:space="preserve">Mettre à jour les script</t>
   </si>
   <si>
-    <t xml:space="preserve">Lighouse</t>
-  </si>
-  <si>
     <t xml:space="preserve">Balise sémentique</t>
   </si>
   <si>
@@ -121,9 +109,6 @@
     <t xml:space="preserve">Rajouter des balise sémantique comme nav, main, footer </t>
   </si>
   <si>
-    <t xml:space="preserve">lighouse</t>
-  </si>
-  <si>
     <t xml:space="preserve">Images </t>
   </si>
   <si>
@@ -212,6 +197,15 @@
   </si>
   <si>
     <t xml:space="preserve">formulaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formulaire non valide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modifier le formulaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lighouse/w3c</t>
   </si>
 </sst>
 </file>
@@ -456,17 +450,17 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="82.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="57.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="10.57"/>
   </cols>
   <sheetData>
@@ -475,19 +469,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -512,28 +506,28 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>1</v>
@@ -541,19 +535,19 @@
     </row>
     <row r="4" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1</v>
@@ -561,16 +555,19 @@
     </row>
     <row r="5" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>1</v>
@@ -578,16 +575,19 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>1</v>
@@ -595,16 +595,16 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>1</v>
@@ -612,19 +612,19 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>0</v>
@@ -632,19 +632,19 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>1</v>
@@ -652,19 +652,19 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>1</v>
@@ -672,16 +672,19 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>1</v>
@@ -689,36 +692,36 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>1</v>
@@ -726,33 +729,39 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>1</v>
@@ -760,16 +769,19 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>1</v>
@@ -777,16 +789,19 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>1</v>
@@ -794,19 +809,19 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>1</v>
@@ -814,16 +829,19 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>1</v>
@@ -831,10 +849,22 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
